--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anelljutic/Documents/GitHub/PS_InfoEng/Zeiterfassung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anelljutic/Documents/GitHub/PS_InfoEng/PS_InfoEng/Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BB7F2C-745D-D64A-8294-E573C5143FB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206E5A1A-FEFF-6640-9264-83FA99659718}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -928,19 +928,19 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,23 +2084,23 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>Samardzic!F58</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <f>Dusanic!F58</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <f>Tabelle35[[#Totals],[Dauer]]</f>
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="D4" s="1">
         <f>Tomic!F58</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <f>Stojcevic!F58</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="38"/>
@@ -2220,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2303,13 +2303,21 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="20">
+        <f ca="1">TODAY()</f>
+        <v>43395</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.875</v>
+      </c>
       <c r="F9">
-        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2802,7 +2810,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -3893,7 +3901,7 @@
   <dimension ref="A2:G233"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B33"/>
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3975,13 +3983,21 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="20">
+        <f ca="1">TODAY()</f>
+        <v>43395</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.875</v>
+      </c>
       <c r="F9">
-        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -4486,7 +4502,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -5878,8 +5894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5978,13 +5994,21 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="20">
+        <f ca="1">TODAY()</f>
+        <v>43395</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0.875</v>
+      </c>
       <c r="F10">
-        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -6546,7 +6570,7 @@
       <c r="E66" s="40"/>
       <c r="F66" s="40">
         <f>SUBTOTAL(109,Tabelle35[Dauer])</f>
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7837,7 +7861,7 @@
   <dimension ref="A2:G233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7919,13 +7943,21 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="20">
+        <f ca="1">TODAY()</f>
+        <v>43395</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.875</v>
+      </c>
       <c r="F9">
-        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -8430,7 +8462,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9823,7 +9855,7 @@
   <dimension ref="A2:F243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9905,13 +9937,21 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="20">
+        <f ca="1">TODAY()</f>
+        <v>43395</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.875</v>
+      </c>
       <c r="F9">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -10404,7 +10444,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1EAEC96E-D3AE-4F64-AE00-7472F6241FB6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3A77E4FC-C0A6-4697-8611-1620C5D2EED2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -403,65 +403,6 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -622,6 +563,65 @@
         </top>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -934,16 +934,16 @@
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10.916666666666666</c:v>
+                  <c:v>11.416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.916666666666666</c:v>
+                  <c:v>11.416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.916666666666666</c:v>
+                  <c:v>13.416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.916666666666666</c:v>
+                  <c:v>11.416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7</c:v>
@@ -1691,35 +1691,35 @@
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Beschreibung" totalsRowLabel="GESAMT" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Datum" totalsRowDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="von" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="bis" totalsRowDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dauer" totalsRowFunction="sum" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Beschreibung" totalsRowLabel="GESAMT" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Datum" totalsRowDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="von" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="bis" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dauer" totalsRowFunction="sum" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:F58" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:F58" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B6:F58" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Beschreibung" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Datum" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="von" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="bis" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dauer" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Beschreibung" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Datum" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="von" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="bis" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dauer" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:F58" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:F58" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="B6:F58" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState ref="B7:H58">
     <sortCondition ref="C6:C58"/>
@@ -1729,7 +1729,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Datum"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="von"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Dauer" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Dauer" dataDxfId="5">
       <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2036,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -2090,19 +2090,19 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>Samardzic!F58</f>
-        <v>10.916666666666666</v>
+        <v>11.416666666666666</v>
       </c>
       <c r="B4" s="1">
         <f>Dusanic!F58</f>
-        <v>10.916666666666666</v>
+        <v>11.416666666666666</v>
       </c>
       <c r="C4" s="1">
         <f>Tabelle35[[#Totals],[Dauer]]</f>
-        <v>12.916666666666666</v>
+        <v>13.416666666666666</v>
       </c>
       <c r="D4" s="1">
         <f>Tomic!F58</f>
-        <v>10.916666666666666</v>
+        <v>11.416666666666666</v>
       </c>
       <c r="E4" s="1">
         <f>Stojcevic!F58</f>
@@ -2226,7 +2226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2368,7 +2368,6 @@
         <v>18</v>
       </c>
       <c r="C12" s="20">
-        <f ca="1">TODAY()</f>
         <v>43395</v>
       </c>
       <c r="D12" s="21">
@@ -2383,9 +2382,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="20">
+        <v>43396</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.40625</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.42708333333333331</v>
+      </c>
       <c r="F13">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2837,7 +2848,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>10.916666666666666</v>
+        <v>11.416666666666666</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3927,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G233"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,7 +4025,6 @@
         <v>18</v>
       </c>
       <c r="C9" s="20">
-        <f ca="1">TODAY()</f>
         <v>43395</v>
       </c>
       <c r="D9" s="21">
@@ -4065,7 +4075,7 @@
       <c r="E13" s="21"/>
       <c r="F13">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4529,7 +4539,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>10.916666666666666</v>
+        <v>11.416666666666666</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5922,7 +5932,7 @@
   <dimension ref="A2:G229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6025,7 +6035,6 @@
         <v>18</v>
       </c>
       <c r="C10" s="20">
-        <f ca="1">TODAY()</f>
         <v>43395</v>
       </c>
       <c r="D10" s="21">
@@ -6066,7 +6075,7 @@
       <c r="E13" s="21"/>
       <c r="F13">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6597,7 +6606,7 @@
       <c r="E66" s="40"/>
       <c r="F66" s="40">
         <f>SUBTOTAL(109,Tabelle35[Dauer])</f>
-        <v>12.916666666666666</v>
+        <v>13.416666666666666</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7888,7 +7897,7 @@
   <dimension ref="A2:G233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7974,7 +7983,6 @@
         <v>18</v>
       </c>
       <c r="C9" s="20">
-        <f ca="1">TODAY()</f>
         <v>43395</v>
       </c>
       <c r="D9" s="21">
@@ -8025,7 +8033,7 @@
       <c r="E13" s="21"/>
       <c r="F13">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8489,7 +8497,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>10.916666666666666</v>
+        <v>11.416666666666666</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -9882,7 +9890,7 @@
   <dimension ref="A2:F243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9968,7 +9976,6 @@
         <v>18</v>
       </c>
       <c r="C9" s="20">
-        <f ca="1">TODAY()</f>
         <v>43395</v>
       </c>
       <c r="D9" s="21">
@@ -9978,6 +9985,7 @@
         <v>0.875</v>
       </c>
       <c r="F9">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>3</v>
       </c>
     </row>

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stdej\OneDrive\Dokumente\GitHub\PS_InfoEng\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5EBE534C-E322-4C24-A9CE-81425AD1FA5C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{7D120D5E-EC8E-4CA5-8300-33463B9A04AA}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{5EBE534C-E322-4C24-A9CE-81425AD1FA5C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{3189B37A-8B24-46D1-985D-3C4179AD7595}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -118,7 +118,10 @@
     <t>Recherche: Software Entwicklung</t>
   </si>
   <si>
-    <t>Recherche: Fragebogen, Methoden, Datengewinnung, Tools</t>
+    <t>Recherche: Fragebogen, Methoden, Datengewinnung</t>
+  </si>
+  <si>
+    <t>Recherche: Tools</t>
   </si>
 </sst>
 </file>
@@ -979,7 +982,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.333333333333334</c:v>
+                  <c:v>17.333333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2071,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2141,7 +2144,7 @@
       </c>
       <c r="E4" s="1">
         <f>Stojcevic!F58</f>
-        <v>15.333333333333334</v>
+        <v>17.333333333333336</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="38"/>
@@ -9981,8 +9984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10137,9 +10140,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="20">
+        <v>43396</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.875</v>
+      </c>
       <c r="F13">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -10591,7 +10606,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>15.333333333333334</v>
+        <v>17.333333333333336</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stdej\OneDrive\Dokumente\GitHub\PS_InfoEng\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{5EBE534C-E322-4C24-A9CE-81425AD1FA5C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{3189B37A-8B24-46D1-985D-3C4179AD7595}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DA116D83-8DCF-453E-9BA0-41D0466FD1E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,10 @@
     <sheet name="Tomic" sheetId="5" r:id="rId5"/>
     <sheet name="Stojcevic" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -967,10 +962,10 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>_-* #\ ##0.00\ _€_-;\-* #\ ##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11.416666666666666</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11.5</c:v>
@@ -2074,25 +2069,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.46484375" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="15.46484375" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="4" width="16.46484375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="21.86328125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="27.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.86328125" customWidth="1"/>
-    <col min="10" max="10" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.46484375" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="4" width="16.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
@@ -2105,7 +2100,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2125,10 +2120,10 @@
       <c r="I3" s="38"/>
       <c r="J3" s="38"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>Samardzic!F58</f>
-        <v>11.416666666666666</v>
+        <v>11.5</v>
       </c>
       <c r="B4" s="1">
         <f>Dusanic!F58</f>
@@ -2151,102 +2146,102 @@
       <c r="I4" s="38"/>
       <c r="J4" s="38"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D27" s="7"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D28" s="7"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D29" s="7"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D30" s="7"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D31" s="7"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D32" s="7"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D33" s="7"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D34" s="7"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D35" s="7"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D36" s="7"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D37" s="7"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D38" s="7"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D39" s="7"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D40" s="7"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D41" s="7"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D42" s="7"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D43" s="7"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D44" s="7"/>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
@@ -2264,36 +2259,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F243"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" customWidth="1"/>
-    <col min="2" max="2" width="90.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
@@ -2310,7 +2305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
@@ -2328,7 +2323,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -2339,14 +2334,14 @@
         <v>0.40625</v>
       </c>
       <c r="E8" s="21">
-        <v>0.4236111111111111</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="F8">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0.41666666666666607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -2364,7 +2359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -2382,7 +2377,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="19" t="s">
         <v>19</v>
@@ -2401,7 +2396,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
@@ -2419,7 +2414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -2437,7 +2432,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
@@ -2447,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
@@ -2457,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
@@ -2467,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
@@ -2477,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
@@ -2487,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
@@ -2497,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
@@ -2507,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
@@ -2517,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
@@ -2527,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
@@ -2537,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
@@ -2547,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
@@ -2557,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="23"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
@@ -2567,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
@@ -2577,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
@@ -2587,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="23"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
@@ -2597,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
@@ -2607,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
@@ -2617,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="23"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
@@ -2627,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
@@ -2637,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
@@ -2647,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
@@ -2657,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="23"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
@@ -2667,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="23"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
@@ -2677,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="23"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
@@ -2687,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="23"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
@@ -2697,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="23"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
@@ -2707,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="23"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -2717,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="23"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
@@ -2727,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="23"/>
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
@@ -2737,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="23"/>
       <c r="C44" s="20"/>
       <c r="D44" s="21"/>
@@ -2747,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="23"/>
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
@@ -2757,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="23"/>
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
@@ -2767,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="23"/>
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
@@ -2777,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="23"/>
       <c r="C48" s="25"/>
       <c r="D48" s="21"/>
@@ -2787,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="23"/>
       <c r="C49" s="25"/>
       <c r="D49" s="21"/>
@@ -2797,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="23"/>
       <c r="C50" s="20"/>
       <c r="D50" s="21"/>
@@ -2807,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="23"/>
       <c r="C51" s="25"/>
       <c r="D51" s="26"/>
@@ -2817,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" s="23"/>
       <c r="C52" s="20"/>
       <c r="D52" s="21"/>
@@ -2827,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" s="23"/>
       <c r="C53" s="25"/>
       <c r="D53" s="21"/>
@@ -2837,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="23"/>
       <c r="C54" s="20"/>
       <c r="D54" s="21"/>
@@ -2847,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="23"/>
       <c r="C55" s="20"/>
       <c r="D55" s="21"/>
@@ -2857,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="23"/>
       <c r="C56" s="20"/>
       <c r="D56" s="21"/>
@@ -2867,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="23"/>
       <c r="C57" s="20"/>
       <c r="D57" s="21"/>
@@ -2877,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
         <v>8</v>
       </c>
@@ -2886,1081 +2881,1081 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>11.416666666666666</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="29"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="31"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="32"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="32"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="32"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="32"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="32"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="32"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="32"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="33"/>
       <c r="C71" s="6"/>
       <c r="D71" s="32"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="32"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="32"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="32"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="32"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="32"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="32"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="32"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="32"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="32"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="32"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="32"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="32"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="32"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="32"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="32"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="32"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="32"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="32"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="32"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="32"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="32"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="32"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="32"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="32"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="32"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="32"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="32"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="32"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="32"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="32"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="32"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="34"/>
       <c r="C103" s="6"/>
       <c r="D103" s="32"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="29"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="30"/>
       <c r="C108" s="30"/>
       <c r="D108" s="31"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="32"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="32"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="32"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="32"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="32"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="32"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="32"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="32"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="32"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="32"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="32"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="32"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="32"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="32"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="32"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="32"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="32"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="32"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="32"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="32"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="32"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="32"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="32"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="32"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="32"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="32"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="32"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="32"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="32"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="32"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="32"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="32"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="32"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="32"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="32"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="32"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="32"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="32"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="32"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="34"/>
       <c r="C148" s="6"/>
       <c r="D148" s="32"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="29"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="30"/>
       <c r="C153" s="30"/>
       <c r="D153" s="31"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="32"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="32"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="32"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="32"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="32"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="32"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="32"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="32"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="32"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="32"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="32"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="32"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="32"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="32"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="32"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="32"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="32"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="32"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="32"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="32"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="32"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="32"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="32"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="32"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="32"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="32"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="32"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="32"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="32"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="32"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="32"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="32"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="32"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="32"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="32"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="32"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="32"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="32"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="32"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="34"/>
       <c r="C193" s="6"/>
       <c r="D193" s="32"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
     </row>
-    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="29"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
     </row>
-    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="30"/>
       <c r="C198" s="30"/>
       <c r="D198" s="31"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="32"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="32"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="32"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="32"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="32"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="32"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="32"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="32"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="32"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="32"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="32"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="32"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="32"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="32"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="32"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="32"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="32"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="32"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="32"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="32"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
       <c r="D219" s="32"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="32"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="32"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="32"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="32"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="32"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="32"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="32"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="32"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="32"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="32"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="32"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="32"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="32"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="32"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
     </row>
   </sheetData>
@@ -3980,32 +3975,32 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" customWidth="1"/>
-    <col min="2" max="2" width="90.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
@@ -4022,7 +4017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
@@ -4040,7 +4035,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
@@ -4058,7 +4053,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>23</v>
       </c>
@@ -4076,7 +4071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="19" t="s">
         <v>23</v>
@@ -4095,7 +4090,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>18</v>
       </c>
@@ -4113,7 +4108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
@@ -4123,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
@@ -4133,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
@@ -4143,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
@@ -4153,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
@@ -4163,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
@@ -4173,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
@@ -4183,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
@@ -4193,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
@@ -4203,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
@@ -4213,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
@@ -4223,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
@@ -4233,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
@@ -4243,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
@@ -4253,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="23"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
@@ -4263,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
@@ -4273,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
@@ -4283,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="23"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
@@ -4293,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
@@ -4303,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
@@ -4313,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="23"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
@@ -4323,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
@@ -4333,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
@@ -4343,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
@@ -4353,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="23"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
@@ -4363,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="23"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
@@ -4373,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="23"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
@@ -4383,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="23"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
@@ -4393,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="23"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
@@ -4403,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="23"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -4413,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="23"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
@@ -4423,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="23"/>
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
@@ -4433,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="23"/>
       <c r="C44" s="20"/>
       <c r="D44" s="21"/>
@@ -4443,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="23"/>
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
@@ -4453,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="23"/>
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
@@ -4463,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="23"/>
       <c r="C47" s="20"/>
@@ -4474,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="23"/>
       <c r="C48" s="25"/>
@@ -4485,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="23"/>
       <c r="C49" s="25"/>
@@ -4496,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="23"/>
       <c r="C50" s="20"/>
@@ -4507,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="23"/>
       <c r="C51" s="25"/>
@@ -4518,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="23"/>
       <c r="C52" s="20"/>
@@ -4529,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="23"/>
       <c r="C53" s="25"/>
@@ -4540,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="23"/>
       <c r="C54" s="20"/>
@@ -4551,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="23"/>
       <c r="C55" s="20"/>
@@ -4562,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="23"/>
       <c r="C56" s="20"/>
@@ -4573,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="23"/>
       <c r="C57" s="20"/>
@@ -4584,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="39" t="s">
         <v>8</v>
@@ -4597,7 +4592,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -4605,7 +4600,7 @@
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -4613,7 +4608,7 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="29"/>
       <c r="C61" s="6"/>
@@ -4621,7 +4616,7 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -4629,7 +4624,7 @@
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -4637,7 +4632,7 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -4645,7 +4640,7 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -4653,7 +4648,7 @@
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -4661,7 +4656,7 @@
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -4669,7 +4664,7 @@
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -4677,7 +4672,7 @@
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -4685,7 +4680,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -4693,7 +4688,7 @@
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="33"/>
       <c r="C71" s="6"/>
@@ -4701,7 +4696,7 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -4709,7 +4704,7 @@
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -4717,7 +4712,7 @@
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -4725,7 +4720,7 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -4733,7 +4728,7 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -4741,7 +4736,7 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -4749,7 +4744,7 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -4757,7 +4752,7 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -4765,7 +4760,7 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -4773,7 +4768,7 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -4781,7 +4776,7 @@
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -4789,7 +4784,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -4797,7 +4792,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -4805,7 +4800,7 @@
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -4813,7 +4808,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -4821,7 +4816,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -4829,7 +4824,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -4837,7 +4832,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -4845,7 +4840,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -4853,7 +4848,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -4861,7 +4856,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -4869,7 +4864,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -4877,7 +4872,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -4885,7 +4880,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -4893,7 +4888,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -4901,7 +4896,7 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -4909,7 +4904,7 @@
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -4917,7 +4912,7 @@
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -4925,7 +4920,7 @@
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -4933,7 +4928,7 @@
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -4941,7 +4936,7 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -4949,7 +4944,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="34"/>
       <c r="C103" s="6"/>
@@ -4957,7 +4952,7 @@
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -4965,7 +4960,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -4973,7 +4968,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="29"/>
       <c r="C106" s="6"/>
@@ -4981,7 +4976,7 @@
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -4989,7 +4984,7 @@
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="30"/>
       <c r="C108" s="30"/>
@@ -4997,7 +4992,7 @@
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -5005,7 +5000,7 @@
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -5013,7 +5008,7 @@
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -5021,7 +5016,7 @@
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -5029,7 +5024,7 @@
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -5037,7 +5032,7 @@
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -5045,7 +5040,7 @@
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -5053,7 +5048,7 @@
       <c r="F115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -5061,7 +5056,7 @@
       <c r="F116"/>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -5069,7 +5064,7 @@
       <c r="F117"/>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -5077,7 +5072,7 @@
       <c r="F118"/>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -5085,7 +5080,7 @@
       <c r="F119"/>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -5093,7 +5088,7 @@
       <c r="F120"/>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -5101,7 +5096,7 @@
       <c r="F121"/>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -5109,7 +5104,7 @@
       <c r="F122"/>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -5117,7 +5112,7 @@
       <c r="F123"/>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -5125,7 +5120,7 @@
       <c r="F124"/>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -5133,7 +5128,7 @@
       <c r="F125"/>
       <c r="G125"/>
     </row>
-    <row r="126" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -5141,7 +5136,7 @@
       <c r="F126"/>
       <c r="G126"/>
     </row>
-    <row r="127" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -5149,7 +5144,7 @@
       <c r="F127"/>
       <c r="G127"/>
     </row>
-    <row r="128" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -5157,7 +5152,7 @@
       <c r="F128"/>
       <c r="G128"/>
     </row>
-    <row r="129" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -5165,7 +5160,7 @@
       <c r="F129"/>
       <c r="G129"/>
     </row>
-    <row r="130" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -5173,7 +5168,7 @@
       <c r="F130"/>
       <c r="G130"/>
     </row>
-    <row r="131" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -5181,7 +5176,7 @@
       <c r="F131"/>
       <c r="G131"/>
     </row>
-    <row r="132" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -5189,7 +5184,7 @@
       <c r="F132"/>
       <c r="G132"/>
     </row>
-    <row r="133" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -5197,7 +5192,7 @@
       <c r="F133"/>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -5205,7 +5200,7 @@
       <c r="F134"/>
       <c r="G134"/>
     </row>
-    <row r="135" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -5213,7 +5208,7 @@
       <c r="F135"/>
       <c r="G135"/>
     </row>
-    <row r="136" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -5221,7 +5216,7 @@
       <c r="F136"/>
       <c r="G136"/>
     </row>
-    <row r="137" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -5229,7 +5224,7 @@
       <c r="F137"/>
       <c r="G137"/>
     </row>
-    <row r="138" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -5237,7 +5232,7 @@
       <c r="F138"/>
       <c r="G138"/>
     </row>
-    <row r="139" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -5245,7 +5240,7 @@
       <c r="F139"/>
       <c r="G139"/>
     </row>
-    <row r="140" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -5253,7 +5248,7 @@
       <c r="F140"/>
       <c r="G140"/>
     </row>
-    <row r="141" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -5261,7 +5256,7 @@
       <c r="F141"/>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -5269,7 +5264,7 @@
       <c r="F142"/>
       <c r="G142"/>
     </row>
-    <row r="143" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -5277,7 +5272,7 @@
       <c r="F143"/>
       <c r="G143"/>
     </row>
-    <row r="144" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -5285,7 +5280,7 @@
       <c r="F144"/>
       <c r="G144"/>
     </row>
-    <row r="145" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -5293,7 +5288,7 @@
       <c r="F145"/>
       <c r="G145"/>
     </row>
-    <row r="146" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -5301,7 +5296,7 @@
       <c r="F146"/>
       <c r="G146"/>
     </row>
-    <row r="147" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -5309,7 +5304,7 @@
       <c r="F147"/>
       <c r="G147"/>
     </row>
-    <row r="148" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="34"/>
       <c r="C148" s="6"/>
@@ -5317,7 +5312,7 @@
       <c r="F148"/>
       <c r="G148"/>
     </row>
-    <row r="149" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -5325,7 +5320,7 @@
       <c r="F149"/>
       <c r="G149"/>
     </row>
-    <row r="150" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -5333,7 +5328,7 @@
       <c r="F150"/>
       <c r="G150"/>
     </row>
-    <row r="151" spans="1:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="29"/>
       <c r="C151" s="6"/>
@@ -5341,7 +5336,7 @@
       <c r="F151"/>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -5349,7 +5344,7 @@
       <c r="F152"/>
       <c r="G152"/>
     </row>
-    <row r="153" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="30"/>
       <c r="C153" s="30"/>
@@ -5357,7 +5352,7 @@
       <c r="F153"/>
       <c r="G153"/>
     </row>
-    <row r="154" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -5365,7 +5360,7 @@
       <c r="F154"/>
       <c r="G154"/>
     </row>
-    <row r="155" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -5373,7 +5368,7 @@
       <c r="F155"/>
       <c r="G155"/>
     </row>
-    <row r="156" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -5381,7 +5376,7 @@
       <c r="F156"/>
       <c r="G156"/>
     </row>
-    <row r="157" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -5389,7 +5384,7 @@
       <c r="F157"/>
       <c r="G157"/>
     </row>
-    <row r="158" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -5397,7 +5392,7 @@
       <c r="F158"/>
       <c r="G158"/>
     </row>
-    <row r="159" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -5405,7 +5400,7 @@
       <c r="F159"/>
       <c r="G159"/>
     </row>
-    <row r="160" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -5413,7 +5408,7 @@
       <c r="F160"/>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -5421,7 +5416,7 @@
       <c r="F161"/>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -5429,7 +5424,7 @@
       <c r="F162"/>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -5437,7 +5432,7 @@
       <c r="F163"/>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -5445,7 +5440,7 @@
       <c r="F164"/>
       <c r="G164"/>
     </row>
-    <row r="165" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -5453,7 +5448,7 @@
       <c r="F165"/>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -5461,7 +5456,7 @@
       <c r="F166"/>
       <c r="G166"/>
     </row>
-    <row r="167" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -5469,7 +5464,7 @@
       <c r="F167"/>
       <c r="G167"/>
     </row>
-    <row r="168" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -5477,7 +5472,7 @@
       <c r="F168"/>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -5485,7 +5480,7 @@
       <c r="F169"/>
       <c r="G169"/>
     </row>
-    <row r="170" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -5493,7 +5488,7 @@
       <c r="F170"/>
       <c r="G170"/>
     </row>
-    <row r="171" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -5501,7 +5496,7 @@
       <c r="F171"/>
       <c r="G171"/>
     </row>
-    <row r="172" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -5509,7 +5504,7 @@
       <c r="F172"/>
       <c r="G172"/>
     </row>
-    <row r="173" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -5517,7 +5512,7 @@
       <c r="F173"/>
       <c r="G173"/>
     </row>
-    <row r="174" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -5525,7 +5520,7 @@
       <c r="F174"/>
       <c r="G174"/>
     </row>
-    <row r="175" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -5533,7 +5528,7 @@
       <c r="F175"/>
       <c r="G175"/>
     </row>
-    <row r="176" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -5541,7 +5536,7 @@
       <c r="F176"/>
       <c r="G176"/>
     </row>
-    <row r="177" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -5549,7 +5544,7 @@
       <c r="F177"/>
       <c r="G177"/>
     </row>
-    <row r="178" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -5557,7 +5552,7 @@
       <c r="F178"/>
       <c r="G178"/>
     </row>
-    <row r="179" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -5565,7 +5560,7 @@
       <c r="F179"/>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -5573,7 +5568,7 @@
       <c r="F180"/>
       <c r="G180"/>
     </row>
-    <row r="181" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -5581,7 +5576,7 @@
       <c r="F181"/>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -5589,7 +5584,7 @@
       <c r="F182"/>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -5597,7 +5592,7 @@
       <c r="F183"/>
       <c r="G183"/>
     </row>
-    <row r="184" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -5605,7 +5600,7 @@
       <c r="F184"/>
       <c r="G184"/>
     </row>
-    <row r="185" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -5613,7 +5608,7 @@
       <c r="F185"/>
       <c r="G185"/>
     </row>
-    <row r="186" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -5621,7 +5616,7 @@
       <c r="F186"/>
       <c r="G186"/>
     </row>
-    <row r="187" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -5629,7 +5624,7 @@
       <c r="F187"/>
       <c r="G187"/>
     </row>
-    <row r="188" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -5637,7 +5632,7 @@
       <c r="F188"/>
       <c r="G188"/>
     </row>
-    <row r="189" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -5645,7 +5640,7 @@
       <c r="F189"/>
       <c r="G189"/>
     </row>
-    <row r="190" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -5653,7 +5648,7 @@
       <c r="F190"/>
       <c r="G190"/>
     </row>
-    <row r="191" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -5661,7 +5656,7 @@
       <c r="F191"/>
       <c r="G191"/>
     </row>
-    <row r="192" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -5669,7 +5664,7 @@
       <c r="F192"/>
       <c r="G192"/>
     </row>
-    <row r="193" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="34"/>
       <c r="C193" s="6"/>
@@ -5677,7 +5672,7 @@
       <c r="F193"/>
       <c r="G193"/>
     </row>
-    <row r="194" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -5685,7 +5680,7 @@
       <c r="F194"/>
       <c r="G194"/>
     </row>
-    <row r="195" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -5693,7 +5688,7 @@
       <c r="F195"/>
       <c r="G195"/>
     </row>
-    <row r="196" spans="1:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="29"/>
       <c r="C196" s="6"/>
@@ -5701,7 +5696,7 @@
       <c r="F196"/>
       <c r="G196"/>
     </row>
-    <row r="197" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -5709,7 +5704,7 @@
       <c r="F197"/>
       <c r="G197"/>
     </row>
-    <row r="198" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="30"/>
       <c r="C198" s="30"/>
@@ -5717,7 +5712,7 @@
       <c r="F198"/>
       <c r="G198"/>
     </row>
-    <row r="199" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -5725,7 +5720,7 @@
       <c r="F199"/>
       <c r="G199"/>
     </row>
-    <row r="200" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -5733,7 +5728,7 @@
       <c r="F200"/>
       <c r="G200"/>
     </row>
-    <row r="201" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -5741,7 +5736,7 @@
       <c r="F201"/>
       <c r="G201"/>
     </row>
-    <row r="202" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -5749,7 +5744,7 @@
       <c r="F202"/>
       <c r="G202"/>
     </row>
-    <row r="203" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -5757,7 +5752,7 @@
       <c r="F203"/>
       <c r="G203"/>
     </row>
-    <row r="204" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -5765,7 +5760,7 @@
       <c r="F204"/>
       <c r="G204"/>
     </row>
-    <row r="205" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -5773,7 +5768,7 @@
       <c r="F205"/>
       <c r="G205"/>
     </row>
-    <row r="206" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -5781,7 +5776,7 @@
       <c r="F206"/>
       <c r="G206"/>
     </row>
-    <row r="207" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -5789,7 +5784,7 @@
       <c r="F207"/>
       <c r="G207"/>
     </row>
-    <row r="208" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -5797,7 +5792,7 @@
       <c r="F208"/>
       <c r="G208"/>
     </row>
-    <row r="209" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -5805,7 +5800,7 @@
       <c r="F209"/>
       <c r="G209"/>
     </row>
-    <row r="210" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -5813,7 +5808,7 @@
       <c r="F210"/>
       <c r="G210"/>
     </row>
-    <row r="211" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -5821,7 +5816,7 @@
       <c r="F211"/>
       <c r="G211"/>
     </row>
-    <row r="212" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -5829,7 +5824,7 @@
       <c r="F212"/>
       <c r="G212"/>
     </row>
-    <row r="213" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -5837,7 +5832,7 @@
       <c r="F213"/>
       <c r="G213"/>
     </row>
-    <row r="214" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -5845,7 +5840,7 @@
       <c r="F214"/>
       <c r="G214"/>
     </row>
-    <row r="215" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -5853,7 +5848,7 @@
       <c r="F215"/>
       <c r="G215"/>
     </row>
-    <row r="216" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -5861,7 +5856,7 @@
       <c r="F216"/>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -5869,7 +5864,7 @@
       <c r="F217"/>
       <c r="G217"/>
     </row>
-    <row r="218" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -5877,7 +5872,7 @@
       <c r="F218"/>
       <c r="G218"/>
     </row>
-    <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -5885,7 +5880,7 @@
       <c r="F219"/>
       <c r="G219"/>
     </row>
-    <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -5893,7 +5888,7 @@
       <c r="F220"/>
       <c r="G220"/>
     </row>
-    <row r="221" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -5901,7 +5896,7 @@
       <c r="F221"/>
       <c r="G221"/>
     </row>
-    <row r="222" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -5909,7 +5904,7 @@
       <c r="F222"/>
       <c r="G222"/>
     </row>
-    <row r="223" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -5917,59 +5912,59 @@
       <c r="F223"/>
       <c r="G223"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="32"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="32"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="32"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="32"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="32"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="32"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="32"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="32"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="32"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="32"/>
@@ -5990,32 +5985,32 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" customWidth="1"/>
-    <col min="2" max="2" width="90.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="12"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
@@ -6032,7 +6027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
@@ -6050,7 +6045,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
@@ -6068,7 +6063,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
@@ -6086,7 +6081,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>18</v>
       </c>
@@ -6104,7 +6099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -6115,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
@@ -6125,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
@@ -6135,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
@@ -6145,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
@@ -6155,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
@@ -6165,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
@@ -6175,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
@@ -6185,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
@@ -6195,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
@@ -6205,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
@@ -6215,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
@@ -6225,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
@@ -6235,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
@@ -6245,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
@@ -6255,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="23"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
@@ -6265,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
@@ -6275,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
@@ -6285,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="23"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
@@ -6295,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
@@ -6305,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
@@ -6315,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="23"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
@@ -6325,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
@@ -6335,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
@@ -6345,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
@@ -6355,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="23"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
@@ -6365,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="23"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
@@ -6375,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="23"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
@@ -6385,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="23"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
@@ -6395,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="23"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
@@ -6405,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="23"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -6415,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="23"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
@@ -6425,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="23"/>
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
@@ -6435,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="23"/>
       <c r="C44" s="20"/>
       <c r="D44" s="21"/>
@@ -6445,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="23"/>
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
@@ -6455,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="23"/>
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
@@ -6465,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="23"/>
       <c r="C47" s="20"/>
@@ -6476,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="23"/>
       <c r="C48" s="25"/>
@@ -6487,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="23"/>
       <c r="C49" s="25"/>
@@ -6498,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="23"/>
       <c r="C50" s="20"/>
@@ -6509,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="23"/>
       <c r="C51" s="25"/>
@@ -6520,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="23"/>
       <c r="C52" s="20"/>
@@ -6531,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="23"/>
       <c r="C53" s="25"/>
@@ -6542,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="23"/>
       <c r="C54" s="20"/>
@@ -6553,7 +6548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="23"/>
       <c r="C55" s="20"/>
@@ -6564,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="23"/>
       <c r="C56" s="20"/>
@@ -6575,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="23"/>
       <c r="C57" s="20"/>
@@ -6586,7 +6581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="36"/>
       <c r="C58" s="6"/>
@@ -6597,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="36"/>
       <c r="C59" s="6"/>
@@ -6608,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="36"/>
       <c r="C60" s="6"/>
@@ -6619,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="36"/>
       <c r="C61" s="6"/>
@@ -6630,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="36"/>
       <c r="C62" s="6"/>
@@ -6641,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="36"/>
       <c r="C63" s="6"/>
@@ -6652,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="36"/>
       <c r="C64" s="6"/>
@@ -6663,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="36"/>
       <c r="C65" s="6"/>
@@ -6674,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="41" t="s">
         <v>8</v>
@@ -6687,7 +6682,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -6695,7 +6690,7 @@
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -6703,7 +6698,7 @@
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -6711,7 +6706,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -6719,7 +6714,7 @@
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -6727,7 +6722,7 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -6735,7 +6730,7 @@
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -6743,7 +6738,7 @@
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -6751,7 +6746,7 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -6759,7 +6754,7 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -6767,7 +6762,7 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -6775,7 +6770,7 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -6783,7 +6778,7 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -6791,7 +6786,7 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -6799,7 +6794,7 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -6807,7 +6802,7 @@
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -6815,7 +6810,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -6823,7 +6818,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -6831,7 +6826,7 @@
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -6839,7 +6834,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -6847,7 +6842,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -6855,7 +6850,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -6863,7 +6858,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -6871,7 +6866,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -6879,7 +6874,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -6887,7 +6882,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -6895,7 +6890,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -6903,7 +6898,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="34"/>
       <c r="C94" s="6"/>
@@ -6911,7 +6906,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -6919,7 +6914,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -6927,7 +6922,7 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="29"/>
       <c r="C97" s="6"/>
@@ -6935,7 +6930,7 @@
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -6943,7 +6938,7 @@
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="30"/>
       <c r="C99" s="30"/>
@@ -6951,7 +6946,7 @@
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -6959,7 +6954,7 @@
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -6967,7 +6962,7 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -6975,7 +6970,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -6983,7 +6978,7 @@
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -6991,7 +6986,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -6999,7 +6994,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -7007,7 +7002,7 @@
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -7015,7 +7010,7 @@
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -7023,7 +7018,7 @@
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -7031,7 +7026,7 @@
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -7039,7 +7034,7 @@
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -7047,7 +7042,7 @@
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -7055,7 +7050,7 @@
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -7063,7 +7058,7 @@
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -7071,7 +7066,7 @@
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -7079,7 +7074,7 @@
       <c r="F115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -7087,7 +7082,7 @@
       <c r="F116"/>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -7095,7 +7090,7 @@
       <c r="F117"/>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -7103,7 +7098,7 @@
       <c r="F118"/>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -7111,7 +7106,7 @@
       <c r="F119"/>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -7119,7 +7114,7 @@
       <c r="F120"/>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -7127,7 +7122,7 @@
       <c r="F121"/>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -7135,7 +7130,7 @@
       <c r="F122"/>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -7143,7 +7138,7 @@
       <c r="F123"/>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -7151,7 +7146,7 @@
       <c r="F124"/>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -7159,7 +7154,7 @@
       <c r="F125"/>
       <c r="G125"/>
     </row>
-    <row r="126" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -7167,7 +7162,7 @@
       <c r="F126"/>
       <c r="G126"/>
     </row>
-    <row r="127" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -7175,7 +7170,7 @@
       <c r="F127"/>
       <c r="G127"/>
     </row>
-    <row r="128" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -7183,7 +7178,7 @@
       <c r="F128"/>
       <c r="G128"/>
     </row>
-    <row r="129" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -7191,7 +7186,7 @@
       <c r="F129"/>
       <c r="G129"/>
     </row>
-    <row r="130" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -7199,7 +7194,7 @@
       <c r="F130"/>
       <c r="G130"/>
     </row>
-    <row r="131" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -7207,7 +7202,7 @@
       <c r="F131"/>
       <c r="G131"/>
     </row>
-    <row r="132" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -7215,7 +7210,7 @@
       <c r="F132"/>
       <c r="G132"/>
     </row>
-    <row r="133" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -7223,7 +7218,7 @@
       <c r="F133"/>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -7231,7 +7226,7 @@
       <c r="F134"/>
       <c r="G134"/>
     </row>
-    <row r="135" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -7239,7 +7234,7 @@
       <c r="F135"/>
       <c r="G135"/>
     </row>
-    <row r="136" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -7247,7 +7242,7 @@
       <c r="F136"/>
       <c r="G136"/>
     </row>
-    <row r="137" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -7255,7 +7250,7 @@
       <c r="F137"/>
       <c r="G137"/>
     </row>
-    <row r="138" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -7263,7 +7258,7 @@
       <c r="F138"/>
       <c r="G138"/>
     </row>
-    <row r="139" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="34"/>
       <c r="C139" s="6"/>
@@ -7271,7 +7266,7 @@
       <c r="F139"/>
       <c r="G139"/>
     </row>
-    <row r="140" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -7279,7 +7274,7 @@
       <c r="F140"/>
       <c r="G140"/>
     </row>
-    <row r="141" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -7287,7 +7282,7 @@
       <c r="F141"/>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="29"/>
       <c r="C142" s="6"/>
@@ -7295,7 +7290,7 @@
       <c r="F142"/>
       <c r="G142"/>
     </row>
-    <row r="143" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -7303,7 +7298,7 @@
       <c r="F143"/>
       <c r="G143"/>
     </row>
-    <row r="144" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="30"/>
       <c r="C144" s="30"/>
@@ -7311,7 +7306,7 @@
       <c r="F144"/>
       <c r="G144"/>
     </row>
-    <row r="145" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -7319,7 +7314,7 @@
       <c r="F145"/>
       <c r="G145"/>
     </row>
-    <row r="146" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -7327,7 +7322,7 @@
       <c r="F146"/>
       <c r="G146"/>
     </row>
-    <row r="147" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -7335,7 +7330,7 @@
       <c r="F147"/>
       <c r="G147"/>
     </row>
-    <row r="148" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -7343,7 +7338,7 @@
       <c r="F148"/>
       <c r="G148"/>
     </row>
-    <row r="149" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -7351,7 +7346,7 @@
       <c r="F149"/>
       <c r="G149"/>
     </row>
-    <row r="150" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -7359,7 +7354,7 @@
       <c r="F150"/>
       <c r="G150"/>
     </row>
-    <row r="151" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -7367,7 +7362,7 @@
       <c r="F151"/>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -7375,7 +7370,7 @@
       <c r="F152"/>
       <c r="G152"/>
     </row>
-    <row r="153" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -7383,7 +7378,7 @@
       <c r="F153"/>
       <c r="G153"/>
     </row>
-    <row r="154" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -7391,7 +7386,7 @@
       <c r="F154"/>
       <c r="G154"/>
     </row>
-    <row r="155" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -7399,7 +7394,7 @@
       <c r="F155"/>
       <c r="G155"/>
     </row>
-    <row r="156" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -7407,7 +7402,7 @@
       <c r="F156"/>
       <c r="G156"/>
     </row>
-    <row r="157" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -7415,7 +7410,7 @@
       <c r="F157"/>
       <c r="G157"/>
     </row>
-    <row r="158" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -7423,7 +7418,7 @@
       <c r="F158"/>
       <c r="G158"/>
     </row>
-    <row r="159" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -7431,7 +7426,7 @@
       <c r="F159"/>
       <c r="G159"/>
     </row>
-    <row r="160" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -7439,7 +7434,7 @@
       <c r="F160"/>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -7447,7 +7442,7 @@
       <c r="F161"/>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -7455,7 +7450,7 @@
       <c r="F162"/>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -7463,7 +7458,7 @@
       <c r="F163"/>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -7471,7 +7466,7 @@
       <c r="F164"/>
       <c r="G164"/>
     </row>
-    <row r="165" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -7479,7 +7474,7 @@
       <c r="F165"/>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -7487,7 +7482,7 @@
       <c r="F166"/>
       <c r="G166"/>
     </row>
-    <row r="167" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -7495,7 +7490,7 @@
       <c r="F167"/>
       <c r="G167"/>
     </row>
-    <row r="168" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -7503,7 +7498,7 @@
       <c r="F168"/>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -7511,7 +7506,7 @@
       <c r="F169"/>
       <c r="G169"/>
     </row>
-    <row r="170" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -7519,7 +7514,7 @@
       <c r="F170"/>
       <c r="G170"/>
     </row>
-    <row r="171" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -7527,7 +7522,7 @@
       <c r="F171"/>
       <c r="G171"/>
     </row>
-    <row r="172" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -7535,7 +7530,7 @@
       <c r="F172"/>
       <c r="G172"/>
     </row>
-    <row r="173" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -7543,7 +7538,7 @@
       <c r="F173"/>
       <c r="G173"/>
     </row>
-    <row r="174" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -7551,7 +7546,7 @@
       <c r="F174"/>
       <c r="G174"/>
     </row>
-    <row r="175" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -7559,7 +7554,7 @@
       <c r="F175"/>
       <c r="G175"/>
     </row>
-    <row r="176" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -7567,7 +7562,7 @@
       <c r="F176"/>
       <c r="G176"/>
     </row>
-    <row r="177" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -7575,7 +7570,7 @@
       <c r="F177"/>
       <c r="G177"/>
     </row>
-    <row r="178" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -7583,7 +7578,7 @@
       <c r="F178"/>
       <c r="G178"/>
     </row>
-    <row r="179" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -7591,7 +7586,7 @@
       <c r="F179"/>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -7599,7 +7594,7 @@
       <c r="F180"/>
       <c r="G180"/>
     </row>
-    <row r="181" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -7607,7 +7602,7 @@
       <c r="F181"/>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -7615,7 +7610,7 @@
       <c r="F182"/>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -7623,7 +7618,7 @@
       <c r="F183"/>
       <c r="G183"/>
     </row>
-    <row r="184" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="34"/>
       <c r="C184" s="6"/>
@@ -7631,7 +7626,7 @@
       <c r="F184"/>
       <c r="G184"/>
     </row>
-    <row r="185" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -7639,7 +7634,7 @@
       <c r="F185"/>
       <c r="G185"/>
     </row>
-    <row r="186" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -7647,7 +7642,7 @@
       <c r="F186"/>
       <c r="G186"/>
     </row>
-    <row r="187" spans="1:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="29"/>
       <c r="C187" s="6"/>
@@ -7655,7 +7650,7 @@
       <c r="F187"/>
       <c r="G187"/>
     </row>
-    <row r="188" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -7663,7 +7658,7 @@
       <c r="F188"/>
       <c r="G188"/>
     </row>
-    <row r="189" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="30"/>
       <c r="C189" s="30"/>
@@ -7671,7 +7666,7 @@
       <c r="F189"/>
       <c r="G189"/>
     </row>
-    <row r="190" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -7679,7 +7674,7 @@
       <c r="F190"/>
       <c r="G190"/>
     </row>
-    <row r="191" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -7687,7 +7682,7 @@
       <c r="F191"/>
       <c r="G191"/>
     </row>
-    <row r="192" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -7695,7 +7690,7 @@
       <c r="F192"/>
       <c r="G192"/>
     </row>
-    <row r="193" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -7703,7 +7698,7 @@
       <c r="F193"/>
       <c r="G193"/>
     </row>
-    <row r="194" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -7711,7 +7706,7 @@
       <c r="F194"/>
       <c r="G194"/>
     </row>
-    <row r="195" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -7719,7 +7714,7 @@
       <c r="F195"/>
       <c r="G195"/>
     </row>
-    <row r="196" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -7727,7 +7722,7 @@
       <c r="F196"/>
       <c r="G196"/>
     </row>
-    <row r="197" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -7735,7 +7730,7 @@
       <c r="F197"/>
       <c r="G197"/>
     </row>
-    <row r="198" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -7743,7 +7738,7 @@
       <c r="F198"/>
       <c r="G198"/>
     </row>
-    <row r="199" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -7751,7 +7746,7 @@
       <c r="F199"/>
       <c r="G199"/>
     </row>
-    <row r="200" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -7759,7 +7754,7 @@
       <c r="F200"/>
       <c r="G200"/>
     </row>
-    <row r="201" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -7767,7 +7762,7 @@
       <c r="F201"/>
       <c r="G201"/>
     </row>
-    <row r="202" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -7775,7 +7770,7 @@
       <c r="F202"/>
       <c r="G202"/>
     </row>
-    <row r="203" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -7783,7 +7778,7 @@
       <c r="F203"/>
       <c r="G203"/>
     </row>
-    <row r="204" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -7791,7 +7786,7 @@
       <c r="F204"/>
       <c r="G204"/>
     </row>
-    <row r="205" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -7799,7 +7794,7 @@
       <c r="F205"/>
       <c r="G205"/>
     </row>
-    <row r="206" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -7807,7 +7802,7 @@
       <c r="F206"/>
       <c r="G206"/>
     </row>
-    <row r="207" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -7815,7 +7810,7 @@
       <c r="F207"/>
       <c r="G207"/>
     </row>
-    <row r="208" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -7823,7 +7818,7 @@
       <c r="F208"/>
       <c r="G208"/>
     </row>
-    <row r="209" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -7831,7 +7826,7 @@
       <c r="F209"/>
       <c r="G209"/>
     </row>
-    <row r="210" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -7839,7 +7834,7 @@
       <c r="F210"/>
       <c r="G210"/>
     </row>
-    <row r="211" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -7847,7 +7842,7 @@
       <c r="F211"/>
       <c r="G211"/>
     </row>
-    <row r="212" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -7855,7 +7850,7 @@
       <c r="F212"/>
       <c r="G212"/>
     </row>
-    <row r="213" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -7863,7 +7858,7 @@
       <c r="F213"/>
       <c r="G213"/>
     </row>
-    <row r="214" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -7871,7 +7866,7 @@
       <c r="F214"/>
       <c r="G214"/>
     </row>
-    <row r="215" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -7879,7 +7874,7 @@
       <c r="F215"/>
       <c r="G215"/>
     </row>
-    <row r="216" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -7887,7 +7882,7 @@
       <c r="F216"/>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -7895,7 +7890,7 @@
       <c r="F217"/>
       <c r="G217"/>
     </row>
-    <row r="218" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -7903,7 +7898,7 @@
       <c r="F218"/>
       <c r="G218"/>
     </row>
-    <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -7911,7 +7906,7 @@
       <c r="F219"/>
       <c r="G219"/>
     </row>
-    <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -7919,7 +7914,7 @@
       <c r="F220"/>
       <c r="G220"/>
     </row>
-    <row r="221" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -7927,7 +7922,7 @@
       <c r="F221"/>
       <c r="G221"/>
     </row>
-    <row r="222" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -7935,31 +7930,31 @@
       <c r="F222"/>
       <c r="G222"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="32"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="32"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
     </row>
   </sheetData>
@@ -7978,32 +7973,32 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" customWidth="1"/>
-    <col min="2" max="2" width="90.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="12"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
@@ -8020,7 +8015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
@@ -8038,7 +8033,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
@@ -8056,7 +8051,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>24</v>
       </c>
@@ -8074,7 +8069,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="19" t="s">
         <v>18</v>
@@ -8093,7 +8088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>25</v>
       </c>
@@ -8111,7 +8106,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
@@ -8121,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
@@ -8131,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
@@ -8141,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
@@ -8151,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
@@ -8161,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
@@ -8171,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
@@ -8181,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
@@ -8191,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
@@ -8201,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
@@ -8211,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
@@ -8221,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
@@ -8231,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
@@ -8241,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
@@ -8251,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="23"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
@@ -8261,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
@@ -8271,7 +8266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
@@ -8281,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="23"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
@@ -8291,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
@@ -8301,7 +8296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
@@ -8311,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="23"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
@@ -8321,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
@@ -8331,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
@@ -8341,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
@@ -8351,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="23"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
@@ -8361,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="23"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
@@ -8371,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="23"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
@@ -8381,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="23"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
@@ -8391,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="23"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
@@ -8401,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="23"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -8411,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="23"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
@@ -8421,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="23"/>
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
@@ -8431,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="23"/>
       <c r="C44" s="20"/>
       <c r="D44" s="21"/>
@@ -8441,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="23"/>
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
@@ -8451,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="23"/>
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
@@ -8461,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="23"/>
       <c r="C47" s="20"/>
@@ -8472,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="23"/>
       <c r="C48" s="25"/>
@@ -8483,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="23"/>
       <c r="C49" s="25"/>
@@ -8494,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="23"/>
       <c r="C50" s="20"/>
@@ -8505,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="23"/>
       <c r="C51" s="25"/>
@@ -8516,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="23"/>
       <c r="C52" s="20"/>
@@ -8527,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="23"/>
       <c r="C53" s="25"/>
@@ -8538,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="23"/>
       <c r="C54" s="20"/>
@@ -8549,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="23"/>
       <c r="C55" s="20"/>
@@ -8560,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="23"/>
       <c r="C56" s="20"/>
@@ -8571,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="23"/>
       <c r="C57" s="20"/>
@@ -8582,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="39" t="s">
         <v>8</v>
@@ -8595,7 +8590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -8603,7 +8598,7 @@
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -8611,7 +8606,7 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="29"/>
       <c r="C61" s="6"/>
@@ -8619,7 +8614,7 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -8627,7 +8622,7 @@
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -8635,7 +8630,7 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -8643,7 +8638,7 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -8651,7 +8646,7 @@
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -8659,7 +8654,7 @@
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -8667,7 +8662,7 @@
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -8675,7 +8670,7 @@
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -8683,7 +8678,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -8691,7 +8686,7 @@
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="33"/>
       <c r="C71" s="6"/>
@@ -8699,7 +8694,7 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -8707,7 +8702,7 @@
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -8715,7 +8710,7 @@
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -8723,7 +8718,7 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -8731,7 +8726,7 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -8739,7 +8734,7 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -8747,7 +8742,7 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -8755,7 +8750,7 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -8763,7 +8758,7 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -8771,7 +8766,7 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -8779,7 +8774,7 @@
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -8787,7 +8782,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -8795,7 +8790,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -8803,7 +8798,7 @@
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -8811,7 +8806,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -8819,7 +8814,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -8827,7 +8822,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -8835,7 +8830,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -8843,7 +8838,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -8851,7 +8846,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -8859,7 +8854,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -8867,7 +8862,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -8875,7 +8870,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -8883,7 +8878,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -8891,7 +8886,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -8899,7 +8894,7 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -8907,7 +8902,7 @@
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -8915,7 +8910,7 @@
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -8923,7 +8918,7 @@
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -8931,7 +8926,7 @@
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -8939,7 +8934,7 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -8947,7 +8942,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="34"/>
       <c r="C103" s="6"/>
@@ -8955,7 +8950,7 @@
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -8963,7 +8958,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -8971,7 +8966,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="29"/>
       <c r="C106" s="6"/>
@@ -8979,7 +8974,7 @@
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -8987,7 +8982,7 @@
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="30"/>
       <c r="C108" s="30"/>
@@ -8995,7 +8990,7 @@
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -9003,7 +8998,7 @@
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -9011,7 +9006,7 @@
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -9019,7 +9014,7 @@
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -9027,7 +9022,7 @@
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -9035,7 +9030,7 @@
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -9043,7 +9038,7 @@
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -9051,7 +9046,7 @@
       <c r="F115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -9059,7 +9054,7 @@
       <c r="F116"/>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -9067,7 +9062,7 @@
       <c r="F117"/>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -9075,7 +9070,7 @@
       <c r="F118"/>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -9083,7 +9078,7 @@
       <c r="F119"/>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -9091,7 +9086,7 @@
       <c r="F120"/>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -9099,7 +9094,7 @@
       <c r="F121"/>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -9107,7 +9102,7 @@
       <c r="F122"/>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -9115,7 +9110,7 @@
       <c r="F123"/>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -9123,7 +9118,7 @@
       <c r="F124"/>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -9131,7 +9126,7 @@
       <c r="F125"/>
       <c r="G125"/>
     </row>
-    <row r="126" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -9139,7 +9134,7 @@
       <c r="F126"/>
       <c r="G126"/>
     </row>
-    <row r="127" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -9147,7 +9142,7 @@
       <c r="F127"/>
       <c r="G127"/>
     </row>
-    <row r="128" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -9155,7 +9150,7 @@
       <c r="F128"/>
       <c r="G128"/>
     </row>
-    <row r="129" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -9163,7 +9158,7 @@
       <c r="F129"/>
       <c r="G129"/>
     </row>
-    <row r="130" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -9171,7 +9166,7 @@
       <c r="F130"/>
       <c r="G130"/>
     </row>
-    <row r="131" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -9179,7 +9174,7 @@
       <c r="F131"/>
       <c r="G131"/>
     </row>
-    <row r="132" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -9187,7 +9182,7 @@
       <c r="F132"/>
       <c r="G132"/>
     </row>
-    <row r="133" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -9195,7 +9190,7 @@
       <c r="F133"/>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -9203,7 +9198,7 @@
       <c r="F134"/>
       <c r="G134"/>
     </row>
-    <row r="135" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -9211,7 +9206,7 @@
       <c r="F135"/>
       <c r="G135"/>
     </row>
-    <row r="136" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -9219,7 +9214,7 @@
       <c r="F136"/>
       <c r="G136"/>
     </row>
-    <row r="137" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -9227,7 +9222,7 @@
       <c r="F137"/>
       <c r="G137"/>
     </row>
-    <row r="138" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -9235,7 +9230,7 @@
       <c r="F138"/>
       <c r="G138"/>
     </row>
-    <row r="139" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -9243,7 +9238,7 @@
       <c r="F139"/>
       <c r="G139"/>
     </row>
-    <row r="140" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -9251,7 +9246,7 @@
       <c r="F140"/>
       <c r="G140"/>
     </row>
-    <row r="141" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -9259,7 +9254,7 @@
       <c r="F141"/>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -9267,7 +9262,7 @@
       <c r="F142"/>
       <c r="G142"/>
     </row>
-    <row r="143" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -9275,7 +9270,7 @@
       <c r="F143"/>
       <c r="G143"/>
     </row>
-    <row r="144" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -9283,7 +9278,7 @@
       <c r="F144"/>
       <c r="G144"/>
     </row>
-    <row r="145" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -9291,7 +9286,7 @@
       <c r="F145"/>
       <c r="G145"/>
     </row>
-    <row r="146" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -9299,7 +9294,7 @@
       <c r="F146"/>
       <c r="G146"/>
     </row>
-    <row r="147" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -9307,7 +9302,7 @@
       <c r="F147"/>
       <c r="G147"/>
     </row>
-    <row r="148" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="34"/>
       <c r="C148" s="6"/>
@@ -9315,7 +9310,7 @@
       <c r="F148"/>
       <c r="G148"/>
     </row>
-    <row r="149" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -9323,7 +9318,7 @@
       <c r="F149"/>
       <c r="G149"/>
     </row>
-    <row r="150" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -9331,7 +9326,7 @@
       <c r="F150"/>
       <c r="G150"/>
     </row>
-    <row r="151" spans="1:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="29"/>
       <c r="C151" s="6"/>
@@ -9339,7 +9334,7 @@
       <c r="F151"/>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -9347,7 +9342,7 @@
       <c r="F152"/>
       <c r="G152"/>
     </row>
-    <row r="153" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="30"/>
       <c r="C153" s="30"/>
@@ -9355,7 +9350,7 @@
       <c r="F153"/>
       <c r="G153"/>
     </row>
-    <row r="154" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -9363,7 +9358,7 @@
       <c r="F154"/>
       <c r="G154"/>
     </row>
-    <row r="155" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -9371,7 +9366,7 @@
       <c r="F155"/>
       <c r="G155"/>
     </row>
-    <row r="156" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -9379,7 +9374,7 @@
       <c r="F156"/>
       <c r="G156"/>
     </row>
-    <row r="157" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -9387,7 +9382,7 @@
       <c r="F157"/>
       <c r="G157"/>
     </row>
-    <row r="158" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -9395,7 +9390,7 @@
       <c r="F158"/>
       <c r="G158"/>
     </row>
-    <row r="159" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -9403,7 +9398,7 @@
       <c r="F159"/>
       <c r="G159"/>
     </row>
-    <row r="160" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -9411,7 +9406,7 @@
       <c r="F160"/>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -9419,7 +9414,7 @@
       <c r="F161"/>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -9427,7 +9422,7 @@
       <c r="F162"/>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -9435,7 +9430,7 @@
       <c r="F163"/>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -9443,7 +9438,7 @@
       <c r="F164"/>
       <c r="G164"/>
     </row>
-    <row r="165" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -9451,7 +9446,7 @@
       <c r="F165"/>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -9459,7 +9454,7 @@
       <c r="F166"/>
       <c r="G166"/>
     </row>
-    <row r="167" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -9467,7 +9462,7 @@
       <c r="F167"/>
       <c r="G167"/>
     </row>
-    <row r="168" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -9475,7 +9470,7 @@
       <c r="F168"/>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -9483,7 +9478,7 @@
       <c r="F169"/>
       <c r="G169"/>
     </row>
-    <row r="170" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -9491,7 +9486,7 @@
       <c r="F170"/>
       <c r="G170"/>
     </row>
-    <row r="171" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -9499,7 +9494,7 @@
       <c r="F171"/>
       <c r="G171"/>
     </row>
-    <row r="172" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -9507,7 +9502,7 @@
       <c r="F172"/>
       <c r="G172"/>
     </row>
-    <row r="173" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -9515,7 +9510,7 @@
       <c r="F173"/>
       <c r="G173"/>
     </row>
-    <row r="174" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -9523,7 +9518,7 @@
       <c r="F174"/>
       <c r="G174"/>
     </row>
-    <row r="175" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -9531,7 +9526,7 @@
       <c r="F175"/>
       <c r="G175"/>
     </row>
-    <row r="176" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -9539,7 +9534,7 @@
       <c r="F176"/>
       <c r="G176"/>
     </row>
-    <row r="177" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -9547,7 +9542,7 @@
       <c r="F177"/>
       <c r="G177"/>
     </row>
-    <row r="178" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -9555,7 +9550,7 @@
       <c r="F178"/>
       <c r="G178"/>
     </row>
-    <row r="179" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -9563,7 +9558,7 @@
       <c r="F179"/>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -9571,7 +9566,7 @@
       <c r="F180"/>
       <c r="G180"/>
     </row>
-    <row r="181" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -9579,7 +9574,7 @@
       <c r="F181"/>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -9587,7 +9582,7 @@
       <c r="F182"/>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -9595,7 +9590,7 @@
       <c r="F183"/>
       <c r="G183"/>
     </row>
-    <row r="184" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -9603,7 +9598,7 @@
       <c r="F184"/>
       <c r="G184"/>
     </row>
-    <row r="185" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -9611,7 +9606,7 @@
       <c r="F185"/>
       <c r="G185"/>
     </row>
-    <row r="186" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -9619,7 +9614,7 @@
       <c r="F186"/>
       <c r="G186"/>
     </row>
-    <row r="187" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -9627,7 +9622,7 @@
       <c r="F187"/>
       <c r="G187"/>
     </row>
-    <row r="188" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -9635,7 +9630,7 @@
       <c r="F188"/>
       <c r="G188"/>
     </row>
-    <row r="189" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -9643,7 +9638,7 @@
       <c r="F189"/>
       <c r="G189"/>
     </row>
-    <row r="190" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -9651,7 +9646,7 @@
       <c r="F190"/>
       <c r="G190"/>
     </row>
-    <row r="191" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -9659,7 +9654,7 @@
       <c r="F191"/>
       <c r="G191"/>
     </row>
-    <row r="192" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -9667,7 +9662,7 @@
       <c r="F192"/>
       <c r="G192"/>
     </row>
-    <row r="193" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="34"/>
       <c r="C193" s="6"/>
@@ -9675,7 +9670,7 @@
       <c r="F193"/>
       <c r="G193"/>
     </row>
-    <row r="194" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -9683,7 +9678,7 @@
       <c r="F194"/>
       <c r="G194"/>
     </row>
-    <row r="195" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -9691,7 +9686,7 @@
       <c r="F195"/>
       <c r="G195"/>
     </row>
-    <row r="196" spans="1:7" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:7" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="29"/>
       <c r="C196" s="6"/>
@@ -9699,7 +9694,7 @@
       <c r="F196"/>
       <c r="G196"/>
     </row>
-    <row r="197" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -9707,7 +9702,7 @@
       <c r="F197"/>
       <c r="G197"/>
     </row>
-    <row r="198" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="30"/>
       <c r="C198" s="30"/>
@@ -9715,7 +9710,7 @@
       <c r="F198"/>
       <c r="G198"/>
     </row>
-    <row r="199" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -9723,7 +9718,7 @@
       <c r="F199"/>
       <c r="G199"/>
     </row>
-    <row r="200" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -9731,7 +9726,7 @@
       <c r="F200"/>
       <c r="G200"/>
     </row>
-    <row r="201" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -9739,7 +9734,7 @@
       <c r="F201"/>
       <c r="G201"/>
     </row>
-    <row r="202" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -9747,7 +9742,7 @@
       <c r="F202"/>
       <c r="G202"/>
     </row>
-    <row r="203" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -9755,7 +9750,7 @@
       <c r="F203"/>
       <c r="G203"/>
     </row>
-    <row r="204" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -9763,7 +9758,7 @@
       <c r="F204"/>
       <c r="G204"/>
     </row>
-    <row r="205" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -9771,7 +9766,7 @@
       <c r="F205"/>
       <c r="G205"/>
     </row>
-    <row r="206" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -9779,7 +9774,7 @@
       <c r="F206"/>
       <c r="G206"/>
     </row>
-    <row r="207" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -9787,7 +9782,7 @@
       <c r="F207"/>
       <c r="G207"/>
     </row>
-    <row r="208" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -9795,7 +9790,7 @@
       <c r="F208"/>
       <c r="G208"/>
     </row>
-    <row r="209" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -9803,7 +9798,7 @@
       <c r="F209"/>
       <c r="G209"/>
     </row>
-    <row r="210" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -9811,7 +9806,7 @@
       <c r="F210"/>
       <c r="G210"/>
     </row>
-    <row r="211" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -9819,7 +9814,7 @@
       <c r="F211"/>
       <c r="G211"/>
     </row>
-    <row r="212" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -9827,7 +9822,7 @@
       <c r="F212"/>
       <c r="G212"/>
     </row>
-    <row r="213" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -9835,7 +9830,7 @@
       <c r="F213"/>
       <c r="G213"/>
     </row>
-    <row r="214" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -9843,7 +9838,7 @@
       <c r="F214"/>
       <c r="G214"/>
     </row>
-    <row r="215" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -9851,7 +9846,7 @@
       <c r="F215"/>
       <c r="G215"/>
     </row>
-    <row r="216" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -9859,7 +9854,7 @@
       <c r="F216"/>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -9867,7 +9862,7 @@
       <c r="F217"/>
       <c r="G217"/>
     </row>
-    <row r="218" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -9875,7 +9870,7 @@
       <c r="F218"/>
       <c r="G218"/>
     </row>
-    <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -9883,7 +9878,7 @@
       <c r="F219"/>
       <c r="G219"/>
     </row>
-    <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -9891,7 +9886,7 @@
       <c r="F220"/>
       <c r="G220"/>
     </row>
-    <row r="221" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -9899,7 +9894,7 @@
       <c r="F221"/>
       <c r="G221"/>
     </row>
-    <row r="222" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -9907,7 +9902,7 @@
       <c r="F222"/>
       <c r="G222"/>
     </row>
-    <row r="223" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -9915,59 +9910,59 @@
       <c r="F223"/>
       <c r="G223"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="32"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="32"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="32"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="32"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="32"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="32"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="32"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="32"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="32"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="32"/>
@@ -9988,32 +9983,32 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" customWidth="1"/>
-    <col min="2" max="2" width="90.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
@@ -10030,7 +10025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
@@ -10048,7 +10043,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>26</v>
       </c>
@@ -10066,7 +10061,7 @@
         <v>0.83333333333333393</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
@@ -10084,7 +10079,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -10102,7 +10097,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="19" t="s">
         <v>18</v>
@@ -10121,7 +10116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -10139,7 +10134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -10157,7 +10152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
@@ -10167,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
@@ -10177,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
@@ -10187,7 +10182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
@@ -10197,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
@@ -10207,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
@@ -10217,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
@@ -10227,7 +10222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
@@ -10237,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
@@ -10247,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
@@ -10257,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
@@ -10267,7 +10262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
@@ -10277,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="23"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
@@ -10287,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
@@ -10297,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
@@ -10307,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="23"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
@@ -10317,7 +10312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
@@ -10327,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
@@ -10337,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="23"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
@@ -10347,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
@@ -10357,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
@@ -10367,7 +10362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
@@ -10377,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="23"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
@@ -10387,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="23"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
@@ -10397,7 +10392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="23"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
@@ -10407,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="23"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
@@ -10417,7 +10412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="23"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
@@ -10427,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="23"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -10437,7 +10432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="23"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
@@ -10447,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="23"/>
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
@@ -10457,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="23"/>
       <c r="C44" s="20"/>
       <c r="D44" s="21"/>
@@ -10467,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="23"/>
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
@@ -10477,7 +10472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="23"/>
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
@@ -10487,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="23"/>
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
@@ -10497,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="23"/>
       <c r="C48" s="25"/>
       <c r="D48" s="21"/>
@@ -10507,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="23"/>
       <c r="C49" s="25"/>
       <c r="D49" s="21"/>
@@ -10517,7 +10512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="23"/>
       <c r="C50" s="20"/>
       <c r="D50" s="21"/>
@@ -10527,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="23"/>
       <c r="C51" s="25"/>
       <c r="D51" s="26"/>
@@ -10537,7 +10532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" s="23"/>
       <c r="C52" s="20"/>
       <c r="D52" s="21"/>
@@ -10547,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" s="23"/>
       <c r="C53" s="25"/>
       <c r="D53" s="21"/>
@@ -10557,7 +10552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="23"/>
       <c r="C54" s="20"/>
       <c r="D54" s="21"/>
@@ -10567,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="23"/>
       <c r="C55" s="20"/>
       <c r="D55" s="21"/>
@@ -10577,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="23"/>
       <c r="C56" s="20"/>
       <c r="D56" s="21"/>
@@ -10587,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="23"/>
       <c r="C57" s="20"/>
       <c r="D57" s="21"/>
@@ -10597,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
         <v>8</v>
       </c>
@@ -10609,1078 +10604,1078 @@
         <v>17.333333333333336</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="29"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="31"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="32"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="32"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="32"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="32"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="32"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="32"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="32"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="33"/>
       <c r="C71" s="6"/>
       <c r="D71" s="32"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="32"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="32"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="32"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="32"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="32"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="32"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="32"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="32"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="32"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="32"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="32"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="32"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="32"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="32"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="32"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="32"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="32"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="32"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="32"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="32"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="32"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="32"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="32"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="32"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="32"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="32"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="32"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="32"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="32"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="32"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="32"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="34"/>
       <c r="C103" s="6"/>
       <c r="D103" s="32"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="29"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="30"/>
       <c r="C108" s="30"/>
       <c r="D108" s="31"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="32"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="32"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="32"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="32"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="32"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="32"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="32"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="32"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="32"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="32"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="32"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="32"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="32"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="32"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="32"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="32"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="32"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="32"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="32"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="32"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="32"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="32"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="32"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="32"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="32"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="32"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="32"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="32"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="32"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="32"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="32"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="32"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="32"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="32"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="32"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="32"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="32"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="32"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="32"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="34"/>
       <c r="C148" s="6"/>
       <c r="D148" s="32"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="29"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="30"/>
       <c r="C153" s="30"/>
       <c r="D153" s="31"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="32"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="32"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="32"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="32"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="32"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="32"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="32"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="32"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="32"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="32"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="32"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="32"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="32"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="32"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="32"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="32"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="32"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="32"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="32"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="32"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="32"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="32"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="32"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="32"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="32"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="32"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="32"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="32"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="32"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="32"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="32"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="32"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="32"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="32"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="32"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="32"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="32"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="32"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="32"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="34"/>
       <c r="C193" s="6"/>
       <c r="D193" s="32"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
     </row>
-    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="29"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
     </row>
-    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="30"/>
       <c r="C198" s="30"/>
       <c r="D198" s="31"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="32"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="32"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="32"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="32"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="32"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="32"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="32"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="32"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="32"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="32"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="32"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="32"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="32"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="32"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="32"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="32"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="32"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="32"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="32"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="32"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
       <c r="D219" s="32"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="32"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="32"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="32"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="32"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="32"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="32"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="32"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="32"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="32"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="32"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="32"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="32"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="32"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="32"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
     </row>
   </sheetData>

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DA116D83-8DCF-453E-9BA0-41D0466FD1E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7297A28F-02F1-4121-8861-4CACECD38AC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Recherche: Tools</t>
+  </si>
+  <si>
+    <t>Präsentation Erstellung für 1 Meileinstein &amp; Vorbereiten &amp; Projektplan erstellen</t>
   </si>
 </sst>
 </file>
@@ -965,7 +968,7 @@
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11.5</c:v>
@@ -2123,7 +2126,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>Samardzic!F58</f>
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
         <f>Dusanic!F58</f>
@@ -2260,7 +2263,7 @@
   <dimension ref="A2:F243"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,13 +2436,21 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="B14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="20">
+        <v>43397</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F14">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2881,7 +2892,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>11.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7297A28F-02F1-4121-8861-4CACECD38AC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8B049EC8-64D1-406A-AE56-5293173F0AE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Präsentation Erstellung für 1 Meileinstein &amp; Vorbereiten &amp; Projektplan erstellen</t>
+  </si>
+  <si>
+    <t>Abstimmung mit Projektpartner bzgl. Erhebungsinstrumen (Microsoft Forms)</t>
+  </si>
+  <si>
+    <t>Präsentation Erstellung für Meeting mit Projektpartner &amp; Vorbereiten</t>
   </si>
 </sst>
 </file>
@@ -968,7 +974,7 @@
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11.5</c:v>
@@ -2126,7 +2132,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>Samardzic!F58</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <f>Dusanic!F58</f>
@@ -2262,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,53 +2460,93 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="20">
+        <v>43403</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.375</v>
+      </c>
       <c r="F15">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="20">
+        <v>43403</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F16">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="20">
+        <v>43410</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F17">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="20">
+        <v>43412</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F18">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="20">
+        <v>43415</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0.875</v>
+      </c>
       <c r="F19">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -2892,7 +2938,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\PS_InfoEng\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F993B066-0AEF-4DC0-95CA-D990ABB5FC54}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8180A0-BC38-4309-BFD6-3C13BB7FB105}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="25608" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="25608" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Meeting mit Projektpartner</t>
+  </si>
+  <si>
+    <t>Dokumentation Spezifische Fragen über Softwareeigenentwicklung</t>
   </si>
 </sst>
 </file>
@@ -454,6 +457,65 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -609,65 +671,6 @@
         </top>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="hh:mm;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="hh:mm;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -983,13 +986,13 @@
                   <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.5</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>19.833333333333336</c:v>
@@ -1737,11 +1740,11 @@
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Beschreibung" totalsRowLabel="GESAMT" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Datum" totalsRowDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="von" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="bis" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dauer" totalsRowFunction="sum" totalsRowDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Beschreibung" totalsRowLabel="GESAMT" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Datum" totalsRowDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="von" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="bis" totalsRowDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dauer" totalsRowFunction="sum" totalsRowDxfId="8">
       <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1750,24 +1753,24 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:F58" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:F58" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B6:F58" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Beschreibung" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Datum" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="von" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="bis" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dauer" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Beschreibung" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Datum" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="von" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="bis" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dauer" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:F58" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:F58" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B6:F58" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState ref="B7:H58">
     <sortCondition ref="C6:C58"/>
@@ -1777,7 +1780,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Datum"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="von"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Dauer" dataDxfId="5">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Dauer" dataDxfId="0">
       <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2084,7 +2087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2142,7 +2145,7 @@
       </c>
       <c r="B4" s="1">
         <f>Dusanic!F58</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
         <f>Tabelle35[[#Totals],[Dauer]]</f>
@@ -2150,7 +2153,7 @@
       </c>
       <c r="D4" s="1">
         <f>Tomic!F58</f>
-        <v>20.5</v>
+        <v>24.5</v>
       </c>
       <c r="E4" s="1">
         <f>Stojcevic!F58</f>
@@ -4051,7 +4054,7 @@
   <dimension ref="A2:G233"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+      <selection activeCell="E15" activeCellId="3" sqref="B15 C15 D15 E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4242,13 +4245,21 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="20">
+        <v>43421</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.625</v>
+      </c>
       <c r="F15" s="24">
         <f>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -4692,7 +4703,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -8088,8 +8099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:G233"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8280,13 +8291,21 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="20">
+        <v>43421</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.625</v>
+      </c>
       <c r="F15">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -8730,7 +8749,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>20.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">

--- a/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\PS_InfoEng\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C16C7-AB92-4636-A910-CF2363B196D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7CD44454-C937-4903-80A2-04D80D4D777B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="25608" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="25608" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Tomic" sheetId="5" r:id="rId5"/>
     <sheet name="Stojcevic" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Bearbeitung vom Fragebogen</t>
+  </si>
+  <si>
+    <t>Ausarbeitung SeminararbeitDokument</t>
   </si>
 </sst>
 </file>
@@ -470,8 +473,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
@@ -783,7 +786,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1004,13 +1007,13 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.5</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>24.333333333333336</c:v>
@@ -1807,7 +1810,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2105,11 +2108,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1" outlineLevel="1"/>
@@ -2163,7 +2166,7 @@
       </c>
       <c r="B4" s="1">
         <f>Dusanic!F58</f>
-        <v>26.5</v>
+        <v>32.5</v>
       </c>
       <c r="C4" s="1">
         <f>Tabelle35[[#Totals],[Dauer]]</f>
@@ -2171,7 +2174,7 @@
       </c>
       <c r="D4" s="1">
         <f>Tomic!F58</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1">
         <f>Stojcevic!F58</f>
@@ -2299,7 +2302,7 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="90.6640625" customWidth="1"/>
@@ -4159,11 +4162,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:E16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="90.6640625" customWidth="1"/>
@@ -4387,13 +4390,21 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="B17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="20">
+        <v>43444</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F17" s="24">
         <f>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -4817,7 +4828,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>26.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -6213,7 +6224,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="90.6640625" customWidth="1"/>
@@ -8214,10 +8225,10 @@
   <dimension ref="A2:G233"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:E16"/>
+      <selection activeCell="B17" sqref="B17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="90.6640625" customWidth="1"/>
@@ -8441,13 +8452,21 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="B17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="20">
+        <v>43444</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F17">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -8871,7 +8890,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -10267,7 +10286,7 @@
       <selection activeCell="B17" sqref="B17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="90.6640625" customWidth="1"/>
